--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1130127.132457684</v>
+        <v>1110615.873724998</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2626870.006455273</v>
+        <v>806345.8827095098</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10606130.46744307</v>
+        <v>11446803.26399407</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>279.935421495294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>14.46389722690833</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>202.1243563288842</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>162.0432948109163</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>56.58072854101201</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>284.5615160058696</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>110.5776872640345</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>14.52687838733131</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,19 +1302,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>70.11928264603856</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>8.612336174459879</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>208.5297823800579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>30.12042274783198</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>11.42437928702194</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,10 +2058,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>104.2590660175756</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2140,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.451579104186558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>113.5103646250815</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>80.00124118081804</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>103.2354093774329</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.59371373186885</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>152.0684032264861</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>173.3368968770841</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.75769145492352</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>37.38100496017486</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.2687961020394</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>191.2032661234056</v>
       </c>
     </row>
     <row r="38">
@@ -3675,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>210.6180377869401</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>28.20584125154421</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>164.2540732785631</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>110.7601806687362</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>176.7697821123584</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1577.945354755378</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C2" t="n">
-        <v>1208.982837814967</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082162</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1964.5451948195</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4391,49 +4391,49 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4467,22 +4467,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1595.875667274027</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="C5" t="n">
-        <v>1595.875667274027</v>
+        <v>1413.148854308789</v>
       </c>
       <c r="D5" t="n">
-        <v>1595.875667274027</v>
+        <v>1054.883155702039</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>669.0949031037944</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>258.1089983141869</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2533.46899524962</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2279.707209887712</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>1948.644322544141</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.875667274027</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1595.875667274027</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1595.875667274027</v>
+        <v>1782.111371249201</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4652,43 +4652,43 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1865.381229508782</v>
+        <v>1626.717708340415</v>
       </c>
       <c r="C8" t="n">
-        <v>1496.41871256837</v>
+        <v>1257.755191400004</v>
       </c>
       <c r="D8" t="n">
-        <v>1138.15301396162</v>
+        <v>899.4894927932532</v>
       </c>
       <c r="E8" t="n">
-        <v>752.3647613633757</v>
+        <v>513.7012401950089</v>
       </c>
       <c r="F8" t="n">
-        <v>341.3788565737681</v>
+        <v>506.7557394458055</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>492.8323353843964</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>165.6376154203992</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="Y8" t="n">
-        <v>2251.981069572904</v>
+        <v>2013.317548404537</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>713.4553696737762</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064344</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940987</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117056</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F10" t="n">
-        <v>430.0992512117056</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>261.099450950038</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5020,22 +5020,22 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5050,19 +5050,19 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2497.450077968866</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,52 +5096,52 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142067</v>
@@ -5150,16 +5150,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1120.662598458018</v>
+        <v>399.0634049978493</v>
       </c>
       <c r="C13" t="n">
-        <v>951.7264155301116</v>
+        <v>399.0634049978493</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104703</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104703</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1956.343466104703</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>1751.093193329805</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X13" t="n">
-        <v>1523.103642431788</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="Y13" t="n">
-        <v>1302.311063288258</v>
+        <v>399.0634049978493</v>
       </c>
     </row>
     <row r="14">
@@ -5278,40 +5278,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
@@ -5357,22 +5357,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320235</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>825.859557377715</v>
+        <v>729.2066409118285</v>
       </c>
       <c r="C16" t="n">
-        <v>656.9233744498081</v>
+        <v>560.2704579839216</v>
       </c>
       <c r="D16" t="n">
-        <v>506.8067350374723</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E16" t="n">
-        <v>506.8067350374723</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104703</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U16" t="n">
-        <v>1956.343466104703</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="V16" t="n">
-        <v>1745.707322286463</v>
+        <v>1390.06190522587</v>
       </c>
       <c r="W16" t="n">
-        <v>1456.290152249502</v>
+        <v>1359.637235783616</v>
       </c>
       <c r="X16" t="n">
-        <v>1228.300601351485</v>
+        <v>1131.647684885598</v>
       </c>
       <c r="Y16" t="n">
-        <v>1007.508022207955</v>
+        <v>910.8551057420682</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5545,16 +5545,16 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5585,10 +5585,10 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
@@ -5600,13 +5600,13 @@
         <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
         <v>2125.961311426849</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>401.9038525862958</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C19" t="n">
-        <v>401.9038525862958</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D19" t="n">
         <v>390.3640755286979</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T19" t="n">
-        <v>1644.746393431757</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1355.6435265574</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V19" t="n">
-        <v>1100.959038351514</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W19" t="n">
-        <v>811.5418683145529</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X19" t="n">
-        <v>583.5523174165355</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.5523174165355</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="20">
@@ -5755,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>818.2062848686776</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1682.725100522032</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5791,7 +5791,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193584</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.200663232024</v>
@@ -5843,7 +5843,7 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5855,16 +5855,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1120.662598458018</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="C22" t="n">
-        <v>951.7264155301116</v>
+        <v>210.2179684131233</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1412.556111024461</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>1123.1389409875</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>1123.1389409875</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,52 +5989,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,28 +6068,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R24" t="n">
         <v>2593.958107142068</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C25" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,37 +6162,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>1734.57685067423</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>1653.767516148151</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>1425.777965250134</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>1204.985386106604</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6229,19 +6229,19 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>932.5990189467745</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1797.117834600129</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2330.649739272054</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
         <v>4470.748294107237</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.4103109586945</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C28" t="n">
-        <v>243.4741280307875</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839442</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
         <v>95.56103444839442</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.788099626699</v>
+        <v>1762.234817571896</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208126</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>1507.550329366009</v>
       </c>
       <c r="X28" t="n">
-        <v>481.6968904858347</v>
+        <v>1279.560778467991</v>
       </c>
       <c r="Y28" t="n">
-        <v>412.4103109586945</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
         <v>2005.253839749764</v>
@@ -6448,43 +6448,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6499,16 +6499,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6548,7 +6548,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>339.1038984121913</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="C31" t="n">
-        <v>339.1038984121913</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D31" t="n">
-        <v>339.1038984121913</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1802.739018401182</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1513.636151526826</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1258.951663320939</v>
+        <v>1078.700325003382</v>
       </c>
       <c r="W31" t="n">
-        <v>969.5344932839785</v>
+        <v>789.2831549664216</v>
       </c>
       <c r="X31" t="n">
-        <v>741.5449423859611</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="Y31" t="n">
-        <v>520.752363242431</v>
+        <v>561.2936040684043</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6697,40 +6697,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089891</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2917.269290763412</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C34" t="n">
-        <v>2917.269290763412</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="D34" t="n">
-        <v>2917.269290763412</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="E34" t="n">
-        <v>2917.269290763412</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="F34" t="n">
-        <v>2917.269290763412</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="G34" t="n">
-        <v>2917.269290763412</v>
+        <v>133.3196253172579</v>
       </c>
       <c r="H34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P34" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>4688.221265177249</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>4496.535381004075</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>4274.768765573601</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U34" t="n">
-        <v>3985.665898699244</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V34" t="n">
-        <v>3730.981410493358</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W34" t="n">
-        <v>3441.564240456397</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X34" t="n">
-        <v>3213.57468955838</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y34" t="n">
-        <v>2992.78211041485</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="35">
@@ -6916,49 +6916,49 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M35" t="n">
-        <v>2461.32865758045</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N35" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870721</v>
       </c>
       <c r="O35" t="n">
-        <v>4010.914672075804</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3064.159238261321</v>
+        <v>877.1197344942216</v>
       </c>
       <c r="C37" t="n">
-        <v>3064.159238261321</v>
+        <v>708.1835515663147</v>
       </c>
       <c r="D37" t="n">
-        <v>3064.159238261321</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E37" t="n">
-        <v>3064.159238261321</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F37" t="n">
-        <v>2917.269290763411</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4759.598393023721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4567.912508850547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4346.145893420073</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U37" t="n">
-        <v>4057.043026545716</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V37" t="n">
-        <v>3802.358538339829</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W37" t="n">
-        <v>3512.941368302869</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X37" t="n">
-        <v>3284.951817404851</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y37" t="n">
-        <v>3064.159238261321</v>
+        <v>1058.768199324461</v>
       </c>
     </row>
     <row r="38">
@@ -7165,13 +7165,13 @@
         <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7180,31 +7180,31 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7229,43 +7229,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O39" t="n">
         <v>2125.96131142685</v>
@@ -7274,7 +7274,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q39" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
         <v>2593.958107142068</v>
@@ -7283,22 +7283,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T39" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W39" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1023.336921276364</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C40" t="n">
-        <v>854.4007383484569</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1866.513008862232</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V40" t="n">
-        <v>1866.513008862232</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W40" t="n">
-        <v>1653.767516148151</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X40" t="n">
-        <v>1425.777965250134</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1204.985386106604</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,64 +7399,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L41" t="n">
-        <v>1898.858917622687</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M41" t="n">
-        <v>2432.390822294612</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>877.1197344942216</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C43" t="n">
-        <v>708.1835515663147</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="D43" t="n">
-        <v>558.0669121539789</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E43" t="n">
-        <v>410.1538185715858</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F43" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7605,16 +7605,16 @@
         <v>1445.473983799873</v>
       </c>
       <c r="V43" t="n">
-        <v>1445.473983799873</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W43" t="n">
-        <v>1445.473983799873</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X43" t="n">
-        <v>1279.560778467991</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y43" t="n">
-        <v>1058.768199324461</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7675,25 +7675,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1120.662598458018</v>
+        <v>561.5038042865474</v>
       </c>
       <c r="C46" t="n">
-        <v>951.7264155301116</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D46" t="n">
-        <v>801.6097761177758</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E46" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7836,22 +7836,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U46" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V46" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W46" t="n">
-        <v>1701.658977898817</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X46" t="n">
-        <v>1523.103642431788</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y46" t="n">
-        <v>1302.311063288258</v>
+        <v>673.3827746590082</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,7 +8224,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
         <v>437.3469244119842</v>
@@ -8300,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360596</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,13 +8698,13 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>410.4190035206675</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476853</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476838</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9877,22 +9877,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>317.5146261106144</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
-        <v>285.7011105564207</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704209</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10597,10 +10597,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>77.35795430876988</v>
       </c>
       <c r="O35" t="n">
-        <v>67.53663776704173</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>344.7025836476828</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>39.4832155777267</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22603,19 +22603,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>106.3025171607596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22804,7 +22804,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>54.40502554674151</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22849,10 +22849,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>96.01048066168096</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23035,13 +23035,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>129.2226540149254</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -23190,19 +23190,19 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>86.05160619575659</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>140.0031368437525</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944232</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>43.60786094377013</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>256.402575588759</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.1910937311904</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -23946,10 +23946,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>147.8785773062524</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.3804010777507</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>35.10510839313082</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.5217571557729</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>116.3135398987363</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.990939620226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>67.48054604968306</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>78.80074644674391</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>105.0742887270138</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>107.3740099541459</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>70.66335656800794</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>27.38138722868922</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,13 +25605,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>75.90496054965092</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>139.0409798470836</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>61.45558211047404</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>69.07179951320111</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>48.93987327667872</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>747113.721249629</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>747113.721249629</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>747113.7212496292</v>
+        <v>1038397.581048951</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961719</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961718</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173334</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="F2" t="n">
-        <v>436789.9655756818</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="G2" t="n">
-        <v>436789.9655756818</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="H2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="I2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="K2" t="n">
-        <v>436789.9655756814</v>
+        <v>436789.9655756816</v>
       </c>
       <c r="L2" t="n">
         <v>436789.9655756815</v>
@@ -26349,13 +26349,13 @@
         <v>436789.9655756815</v>
       </c>
       <c r="N2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="O2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>436789.9655756816</v>
-      </c>
-      <c r="P2" t="n">
-        <v>436789.9655756815</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="C4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>53660.56571087037</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709189</v>
@@ -26435,16 +26435,16 @@
         <v>21619.60799709189</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.6079970919</v>
       </c>
       <c r="J4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
@@ -26453,10 +26453,10 @@
         <v>21619.60799709186</v>
       </c>
       <c r="N4" t="n">
+        <v>21619.60799709188</v>
+      </c>
+      <c r="O4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="O4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709188</v>
@@ -26490,7 +26490,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371366</v>
@@ -26499,16 +26499,16 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-408419.6519714907</v>
+        <v>-413460.5802450277</v>
       </c>
       <c r="C6" t="n">
-        <v>181548.2272430536</v>
+        <v>176507.2989695167</v>
       </c>
       <c r="D6" t="n">
-        <v>181548.2272430537</v>
+        <v>176507.2989695167</v>
       </c>
       <c r="E6" t="n">
-        <v>-408590.5746685305</v>
+        <v>-409262.5295707887</v>
       </c>
       <c r="F6" t="n">
-        <v>318786.8393248762</v>
+        <v>318114.8844226183</v>
       </c>
       <c r="G6" t="n">
-        <v>318786.8393248763</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="H6" t="n">
-        <v>318786.8393248758</v>
+        <v>318114.884422618</v>
       </c>
       <c r="I6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="J6" t="n">
-        <v>142363.620132283</v>
+        <v>141691.665230025</v>
       </c>
       <c r="K6" t="n">
-        <v>318786.8393248759</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="L6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="M6" t="n">
-        <v>189144.5244859313</v>
+        <v>188472.5695836733</v>
       </c>
       <c r="N6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.8844226181</v>
       </c>
       <c r="O6" t="n">
-        <v>318786.8393248761</v>
+        <v>318114.884422618</v>
       </c>
       <c r="P6" t="n">
-        <v>318786.839324876</v>
+        <v>318114.8844226181</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>116.7497573142985</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>211.6598136919108</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>169.1289268480251</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.3536289808268</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>165.305101794606</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
         <v>478.8956552492236</v>
@@ -35020,7 +35020,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839198</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35418,13 +35418,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>949.340119350894</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908542</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359043</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359029</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>654.7059126660149</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
-        <v>684.4630967757926</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707616</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37317,10 +37317,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>629.6597897216814</v>
       </c>
       <c r="O35" t="n">
-        <v>575.5896386552608</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37329,7 +37329,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>800.292698040015</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906382</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_6_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1110615.873724998</v>
+        <v>1126150.974465596</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836232</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095098</v>
+        <v>2626870.006455271</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11446803.26399407</v>
+        <v>10606130.46744307</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>237.9332843063845</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>202.0903689981446</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>14.46389722690833</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>202.1243563288842</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.34019441676959</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>56.58072854101201</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>110.5776872640345</v>
+        <v>120.6931758042665</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.52687838733131</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>8.612336174459879</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>30.12042274783198</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.917970139621</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>104.2590660175756</v>
+        <v>87.67771932486366</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2244,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>113.5103646250815</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.6898441249706</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>87.22506181228437</v>
       </c>
     </row>
     <row r="26">
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T26" t="n">
         <v>203.9179701396201</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>40.99909855081541</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>103.2354093774329</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>85.65576091831602</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>173.3368968770841</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>37.38100496017486</v>
+        <v>139.176039435028</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>140.1918165590949</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>191.2032661234056</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3663,16 +3663,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>56.9728505726339</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3760,7 +3760,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>28.20584125154421</v>
+        <v>150.1033339375744</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>110.7601806687362</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>114.1627038799795</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1662.48357412947</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C2" t="n">
-        <v>1662.48357412947</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2008.049442644265</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1655.280787374151</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="3">
@@ -4391,34 +4391,34 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>713.5189870075369</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>563.4023475952011</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>415.489254012808</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4521,19 +4521,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1782.111371249201</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="C5" t="n">
-        <v>1413.148854308789</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D5" t="n">
-        <v>1054.883155702039</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>669.0949031037944</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>258.1089983141869</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4600,19 +4600,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249201</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249201</v>
+        <v>1813.097842756629</v>
       </c>
       <c r="Y5" t="n">
-        <v>1782.111371249201</v>
+        <v>1422.958510780817</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,13 +4646,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="X7" t="n">
-        <v>670.9767331549069</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.717708340415</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="C8" t="n">
-        <v>1257.755191400004</v>
+        <v>1390.593246102218</v>
       </c>
       <c r="D8" t="n">
-        <v>899.4894927932532</v>
+        <v>1390.593246102218</v>
       </c>
       <c r="E8" t="n">
-        <v>513.7012401950089</v>
+        <v>1004.804993503973</v>
       </c>
       <c r="F8" t="n">
-        <v>506.7557394458055</v>
+        <v>593.819088714366</v>
       </c>
       <c r="G8" t="n">
-        <v>492.8323353843964</v>
+        <v>175.8552806125529</v>
       </c>
       <c r="H8" t="n">
-        <v>165.6376154203992</v>
+        <v>175.8552806125529</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X8" t="n">
-        <v>2013.317548404537</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y8" t="n">
-        <v>2013.317548404537</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
         <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.4553696737762</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>544.5191867458693</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064341</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064341</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064341</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5020,49 +5020,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F12" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
@@ -5123,7 +5123,7 @@
         <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.200663232024</v>
@@ -5132,34 +5132,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282341</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>399.0634049978493</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C13" t="n">
-        <v>399.0634049978493</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X13" t="n">
-        <v>619.8559841413794</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0634049978493</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="14">
@@ -5275,7 +5275,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
         <v>284.4401654074198</v>
@@ -5287,22 +5287,22 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
         <v>4667.761053946815</v>
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5375,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>729.2066409118285</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C16" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1866.513008862231</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1644.746393431757</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1644.746393431757</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1390.06190522587</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1359.637235783616</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1131.647684885598</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>910.8551057420682</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
@@ -5500,7 +5500,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5512,7 +5512,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
         <v>284.4401654074198</v>
@@ -5524,25 +5524,25 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
         <v>4461.783306331037</v>
@@ -5551,16 +5551,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4168978689405</v>
+        <v>658.8294814682021</v>
       </c>
       <c r="C19" t="n">
-        <v>540.4807149410336</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.576850674229</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U19" t="n">
-        <v>1734.576850674229</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V19" t="n">
-        <v>1629.264662777688</v>
+        <v>1578.67724637695</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.847492740728</v>
+        <v>1289.260076339989</v>
       </c>
       <c r="X19" t="n">
-        <v>1111.85794184271</v>
+        <v>1061.270525441972</v>
       </c>
       <c r="Y19" t="n">
-        <v>891.0653626991802</v>
+        <v>840.4779462984418</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5758,46 +5758,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,43 +5807,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5852,31 +5852,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>210.2179684131233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
         <v>95.56103444839442</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.866433243363</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
@@ -5998,13 +5998,13 @@
         <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
         <v>4470.748294107237</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,40 +6068,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>393.5907674431232</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E25" t="n">
         <v>95.56103444839442</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,19 +6162,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
         <v>1542.890966501056</v>
@@ -6183,16 +6183,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423041</v>
+        <v>393.5907674431232</v>
       </c>
     </row>
     <row r="26">
@@ -6205,16 +6205,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
@@ -6223,7 +6223,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
@@ -6244,28 +6244,28 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
         <v>3150.95552873011</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6311,7 +6311,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,16 +6323,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>452.5901955154781</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>304.6771019330849</v>
       </c>
       <c r="F28" t="n">
         <v>263.2638710736754</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1762.234817571896</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U28" t="n">
-        <v>1762.234817571896</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V28" t="n">
-        <v>1507.550329366009</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.550329366009</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="29">
@@ -6442,25 +6442,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
         <v>284.4401654074198</v>
@@ -6481,34 +6481,34 @@
         <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>561.2936040684043</v>
+        <v>412.4103109586945</v>
       </c>
       <c r="C31" t="n">
-        <v>561.2936040684043</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D31" t="n">
-        <v>411.1769646560685</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1869.822495480142</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1648.055880049668</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1358.953013175312</v>
       </c>
       <c r="V31" t="n">
-        <v>1078.700325003382</v>
+        <v>1104.268524969425</v>
       </c>
       <c r="W31" t="n">
-        <v>789.2831549664216</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="X31" t="n">
-        <v>561.2936040684043</v>
+        <v>814.8513549324643</v>
       </c>
       <c r="Y31" t="n">
-        <v>561.2936040684043</v>
+        <v>594.0587757889342</v>
       </c>
     </row>
     <row r="32">
@@ -6706,22 +6706,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3944.053400686433</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4338.827767043611</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>301.0224619425389</v>
+        <v>1017.701592509401</v>
       </c>
       <c r="C34" t="n">
-        <v>301.0224619425389</v>
+        <v>848.7654095814945</v>
       </c>
       <c r="D34" t="n">
-        <v>301.0224619425389</v>
+        <v>698.6487701691588</v>
       </c>
       <c r="E34" t="n">
-        <v>301.0224619425389</v>
+        <v>550.7356765867656</v>
       </c>
       <c r="F34" t="n">
-        <v>301.0224619425389</v>
+        <v>403.8457290888553</v>
       </c>
       <c r="G34" t="n">
-        <v>133.3196253172579</v>
+        <v>236.1428924635742</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839441</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851287</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W34" t="n">
-        <v>931.4530568143261</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="X34" t="n">
-        <v>703.4635059163088</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.6709267727787</v>
+        <v>1199.350057339641</v>
       </c>
     </row>
     <row r="35">
@@ -6937,19 +6937,19 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2949.638265046256</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>3573.001456870721</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O35" t="n">
         <v>4075.973927750058</v>
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839441</v>
@@ -7022,7 +7022,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7034,16 +7034,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>877.1197344942216</v>
+        <v>720.69789701373</v>
       </c>
       <c r="C37" t="n">
-        <v>708.1835515663147</v>
+        <v>551.7617140858231</v>
       </c>
       <c r="D37" t="n">
-        <v>558.0669121539789</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="E37" t="n">
         <v>410.1538185715858</v>
@@ -7125,22 +7125,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>1734.57685067423</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V37" t="n">
-        <v>1479.892362468343</v>
+        <v>1412.556111024461</v>
       </c>
       <c r="W37" t="n">
-        <v>1479.892362468343</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X37" t="n">
-        <v>1251.902811570325</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="Y37" t="n">
-        <v>1058.768199324461</v>
+        <v>902.3463618439697</v>
       </c>
     </row>
     <row r="38">
@@ -7153,25 +7153,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D38" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>284.4401654074198</v>
@@ -7180,46 +7180,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
         <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,22 +7271,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>709.4168978689405</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="C40" t="n">
-        <v>540.4807149410336</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="D40" t="n">
-        <v>390.3640755286979</v>
+        <v>301.0224619425389</v>
       </c>
       <c r="E40" t="n">
-        <v>242.4509819463048</v>
+        <v>153.1093683601458</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>1883.949150983575</v>
+        <v>1475.554715057174</v>
       </c>
       <c r="V40" t="n">
-        <v>1629.264662777688</v>
+        <v>1220.870226851287</v>
       </c>
       <c r="W40" t="n">
-        <v>1339.847492740728</v>
+        <v>931.4530568143261</v>
       </c>
       <c r="X40" t="n">
-        <v>1111.85794184271</v>
+        <v>703.4635059163088</v>
       </c>
       <c r="Y40" t="n">
-        <v>891.0653626991802</v>
+        <v>482.6709267727787</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
@@ -7399,64 +7399,64 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1482.778354750621</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2016.310259422546</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2877.428556330835</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3757.39320666029</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320245</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,22 +7520,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>270.9417306852383</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="C43" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D43" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E43" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1190.789495593986</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>901.3723255570255</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>673.3827746590082</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y43" t="n">
-        <v>452.5901955154781</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7648,52 +7648,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.5038042865474</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="C46" t="n">
-        <v>392.5676213586405</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="D46" t="n">
-        <v>242.4509819463048</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>410.1538185715858</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839442</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1841.027603599674</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1619.2609881692</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1330.158121294844</v>
       </c>
       <c r="V46" t="n">
-        <v>1190.789495593986</v>
+        <v>1075.473633088957</v>
       </c>
       <c r="W46" t="n">
-        <v>901.3723255570255</v>
+        <v>786.0564630519963</v>
       </c>
       <c r="X46" t="n">
-        <v>673.3827746590082</v>
+        <v>558.0669121539789</v>
       </c>
       <c r="Y46" t="n">
-        <v>673.3827746590082</v>
+        <v>558.0669121539789</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360596</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>232.1124963760979</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400255</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9889,7 +9889,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10363,16 +10363,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>67.53663776704209</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10597,10 +10597,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>77.35795430876988</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>39.4832155777267</v>
+        <v>148.4180109385399</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11080,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400255</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>125.6618894719903</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,7 +22801,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22837,7 +22837,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.9007743006434</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22941,31 +22941,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,16 +22986,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23004,13 +23004,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>96.68503059263384</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>31.23814044059473</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23086,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23178,31 +23178,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23223,31 +23223,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>140.0031368437525</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>256.402575588759</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>147.8785773062524</v>
+        <v>164.4599239989643</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>35.10510839313082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.14213605696668</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>131.3595915398104</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>104.4219494721158</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>116.3135398987363</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>104.1132644131259</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>78.80074644674391</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.3740099541459</v>
+        <v>5.578975479292779</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>8.423656459117467</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25365,22 +25365,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>27.38138722868922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>88.44819745029736</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>139.0409798470836</v>
+        <v>17.14348716105343</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>69.07179951320111</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>75.60632145146238</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1038397.581048951</v>
+        <v>747113.721249629</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>973822.9825961719</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961716</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>973822.9825961718</v>
+        <v>973822.9825961717</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>973822.9825961717</v>
+        <v>973822.9825961716</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173333</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>318067.8710173334</v>
       </c>
       <c r="E2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="F2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="G2" t="n">
+        <v>436789.9655756816</v>
+      </c>
+      <c r="H2" t="n">
         <v>436789.9655756815</v>
       </c>
-      <c r="F2" t="n">
-        <v>436789.9655756817</v>
-      </c>
-      <c r="G2" t="n">
-        <v>436789.9655756817</v>
-      </c>
-      <c r="H2" t="n">
-        <v>436789.9655756817</v>
-      </c>
       <c r="I2" t="n">
-        <v>436789.9655756816</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="J2" t="n">
-        <v>436789.9655756817</v>
+        <v>436789.9655756815</v>
       </c>
       <c r="K2" t="n">
         <v>436789.9655756816</v>
@@ -26346,16 +26346,16 @@
         <v>436789.9655756815</v>
       </c>
       <c r="M2" t="n">
-        <v>436789.9655756815</v>
+        <v>436789.9655756817</v>
       </c>
       <c r="N2" t="n">
         <v>436789.9655756816</v>
       </c>
       <c r="O2" t="n">
+        <v>436789.9655756814</v>
+      </c>
+      <c r="P2" t="n">
         <v>436789.9655756815</v>
-      </c>
-      <c r="P2" t="n">
-        <v>436789.9655756816</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>53660.56571087037</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709189</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="I4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="I4" t="n">
-        <v>21619.6079970919</v>
-      </c>
       <c r="J4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="K4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="L4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="N4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26475,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
         <v>96383.51825371364</v>
@@ -26490,13 +26490,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="J5" t="n">
-        <v>96383.51825371366</v>
-      </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
@@ -26505,10 +26505,10 @@
         <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371366</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-413460.5802450277</v>
+        <v>-409026.4933460728</v>
       </c>
       <c r="C6" t="n">
-        <v>176507.2989695167</v>
+        <v>180941.3858684717</v>
       </c>
       <c r="D6" t="n">
-        <v>176507.2989695167</v>
+        <v>180941.3858684716</v>
       </c>
       <c r="E6" t="n">
-        <v>-409262.5295707887</v>
+        <v>-408657.7701587563</v>
       </c>
       <c r="F6" t="n">
-        <v>318114.8844226183</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="G6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="H6" t="n">
-        <v>318114.884422618</v>
+        <v>318719.6438346502</v>
       </c>
       <c r="I6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346502</v>
       </c>
       <c r="J6" t="n">
-        <v>141691.665230025</v>
+        <v>142296.4246420573</v>
       </c>
       <c r="K6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="L6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="M6" t="n">
-        <v>188472.5695836733</v>
+        <v>189077.3289957056</v>
       </c>
       <c r="N6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346503</v>
       </c>
       <c r="O6" t="n">
-        <v>318114.884422618</v>
+        <v>318719.6438346501</v>
       </c>
       <c r="P6" t="n">
-        <v>318114.8844226181</v>
+        <v>318719.6438346502</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>116.7497573142985</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>152.7829238717195</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>211.6598136919108</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>169.1289268480251</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.3536289808268</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.305101794606</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,16 +31515,16 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
         <v>193.1674799081577</v>
@@ -31536,25 +31536,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,31 +31594,31 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839198</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>771.0336122063246</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282446</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -37074,7 +37074,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M32" t="n">
         <v>988.4346493230593</v>
@@ -37083,16 +37083,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>318.3309425707616</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
         <v>873.2513289427826</v>
@@ -37317,10 +37317,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>629.6597897216814</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P35" t="n">
         <v>398.7619862193719</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
         <v>988.4346493230593</v>
@@ -37557,7 +37557,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
         <v>398.7619862193719</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
@@ -37791,7 +37791,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>591.7850509906382</v>
+        <v>700.7198463514513</v>
       </c>
       <c r="O41" t="n">
         <v>888.8531821509645</v>
@@ -37800,10 +37800,10 @@
         <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282446</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
